--- a/States_df.xlsx
+++ b/States_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>storage location</t>
+          <t>location</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -828,7 +828,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -952,7 +952,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>/cluster/scratch/orsob/orsoMT_orsob/part1_a</t>
+          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_a</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_b</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part1_b</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_b</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part1_b</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_b</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part1_b</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part1_b</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part1_b</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part2_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part2_a</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part2_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part2_a</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part2_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part2_a</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part2_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part2_a</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part2_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part2_a</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part2_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part2_a</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part2_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part2_a</t>
         </is>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part2_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part2_a</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part2_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part2_a</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part2_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part2_a</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part2_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part2_a</t>
         </is>
       </c>
     </row>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part3_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part3_a</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part3_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part3_a</t>
         </is>
       </c>
     </row>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part3_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part3_a</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part3_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part3_a</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part3_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part3_a</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part3_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part3_a</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part3_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part3_a</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part3_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part3_a</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part3_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part3_a</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part3_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part3_a</t>
         </is>
       </c>
     </row>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part3_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part3_a</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part3_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part3_a</t>
         </is>
       </c>
     </row>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part3_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part3_a</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part3_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part3_a</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part3_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part3_a</t>
         </is>
       </c>
     </row>
@@ -2839,11 +2839,11 @@
         <v>77</v>
       </c>
       <c r="D78" t="n">
-        <v>93.13225746154785</v>
+        <v>102.1311880424619</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>/cluster/scratch/doancea/orsoMT_doancea/part4_a</t>
+          <t>/cluster/scratch/scleon/orsoMT_scleon/part4_a</t>
         </is>
       </c>
     </row>
@@ -2870,7 +2870,7 @@
         <v>78</v>
       </c>
       <c r="D79" t="n">
-        <v>93.13225746154785</v>
+        <v>102.1311880424619</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>79</v>
       </c>
       <c r="D80" t="n">
-        <v>93.13225746154785</v>
+        <v>102.1311880424619</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>80</v>
       </c>
       <c r="D81" t="n">
-        <v>93.13225746154785</v>
+        <v>102.1311880424619</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>81</v>
       </c>
       <c r="D82" t="n">
-        <v>93.13225746154785</v>
+        <v>102.1311880424619</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>82</v>
       </c>
       <c r="D83" t="n">
-        <v>93.13225746154785</v>
+        <v>102.1311880424619</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>83</v>
       </c>
       <c r="D84" t="n">
-        <v>93.13225746154785</v>
+        <v>102.1311880424619</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>84</v>
       </c>
       <c r="D85" t="n">
-        <v>93.13225746154785</v>
+        <v>102.1311880424619</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>85</v>
       </c>
       <c r="D86" t="n">
-        <v>93.13225746154785</v>
+        <v>102.1311880424619</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>86</v>
       </c>
       <c r="D87" t="n">
-        <v>93.13225746154785</v>
+        <v>102.1311880424619</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>87</v>
       </c>
       <c r="D88" t="n">
-        <v>93.13225746154785</v>
+        <v>102.1311880424619</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>88</v>
       </c>
       <c r="D89" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>89</v>
       </c>
       <c r="D90" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>90</v>
       </c>
       <c r="D91" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         <v>91</v>
       </c>
       <c r="D92" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>92</v>
       </c>
       <c r="D93" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>93</v>
       </c>
       <c r="D94" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>94</v>
       </c>
       <c r="D95" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>95</v>
       </c>
       <c r="D96" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>96</v>
       </c>
       <c r="D97" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>97</v>
       </c>
       <c r="D98" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>98</v>
       </c>
       <c r="D99" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>99</v>
       </c>
       <c r="D100" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>100</v>
       </c>
       <c r="D101" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>101</v>
       </c>
       <c r="D102" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3614,21 +3614,21 @@
         <v>102</v>
       </c>
       <c r="D103" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>/cluster/scratch/aolareanu/orsoMT_aolareanu</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>part5_a</t>
+          <t>part5_b</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>/cluster/scratch/aolareanu/orsoMT_aolareanu/part5_a</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part5_b</t>
         </is>
       </c>
     </row>
@@ -3645,21 +3645,21 @@
         <v>103</v>
       </c>
       <c r="D104" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>/cluster/scratch/aolareanu/orsoMT_aolareanu</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>part5_a</t>
+          <t>part5_b</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>/cluster/scratch/aolareanu/orsoMT_aolareanu/part5_a</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part5_b</t>
         </is>
       </c>
     </row>
@@ -3676,11 +3676,11 @@
         <v>104</v>
       </c>
       <c r="D105" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part5_b</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part5_b</t>
         </is>
       </c>
     </row>
@@ -3707,11 +3707,11 @@
         <v>105</v>
       </c>
       <c r="D106" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part5_b</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part5_b</t>
         </is>
       </c>
     </row>
@@ -3738,11 +3738,11 @@
         <v>106</v>
       </c>
       <c r="D107" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part5_b</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part5_b</t>
         </is>
       </c>
     </row>
@@ -3769,11 +3769,11 @@
         <v>107</v>
       </c>
       <c r="D108" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part5_b</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part5_b</t>
         </is>
       </c>
     </row>
@@ -3800,11 +3800,11 @@
         <v>108</v>
       </c>
       <c r="D109" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part5_b</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part5_b</t>
         </is>
       </c>
     </row>
@@ -3831,11 +3831,11 @@
         <v>109</v>
       </c>
       <c r="D110" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part5_b</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part5_b</t>
         </is>
       </c>
     </row>
@@ -3862,11 +3862,11 @@
         <v>110</v>
       </c>
       <c r="D111" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part5_b</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part5_b</t>
         </is>
       </c>
     </row>
@@ -3893,11 +3893,11 @@
         <v>111</v>
       </c>
       <c r="D112" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part5_b</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part5_b</t>
         </is>
       </c>
     </row>
@@ -3924,11 +3924,11 @@
         <v>112</v>
       </c>
       <c r="D113" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -3938,38 +3938,38 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part5_b</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part5_b</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>part6</t>
+          <t>part5</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C114" t="n">
         <v>113</v>
       </c>
       <c r="D114" t="n">
-        <v>93.13225746154785</v>
+        <v>98.72692836076021</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>part6_a</t>
+          <t>part5_b</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part6_a</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part5_b</t>
         </is>
       </c>
     </row>
@@ -3980,17 +3980,17 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
         <v>114</v>
       </c>
       <c r="D115" t="n">
-        <v>93.13225746154785</v>
+        <v>91.53545106202364</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4000,7 +4000,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part6_a</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part6_a</t>
         </is>
       </c>
     </row>
@@ -4011,17 +4011,17 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C116" t="n">
         <v>115</v>
       </c>
       <c r="D116" t="n">
-        <v>93.13225746154785</v>
+        <v>91.53545106202364</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part6_a</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part6_a</t>
         </is>
       </c>
     </row>
@@ -4042,17 +4042,17 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C117" t="n">
         <v>116</v>
       </c>
       <c r="D117" t="n">
-        <v>93.13225746154785</v>
+        <v>91.53545106202364</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part6_a</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part6_a</t>
         </is>
       </c>
     </row>
@@ -4073,17 +4073,17 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C118" t="n">
         <v>117</v>
       </c>
       <c r="D118" t="n">
-        <v>93.13225746154785</v>
+        <v>91.53545106202364</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part6_a</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part6_a</t>
         </is>
       </c>
     </row>
@@ -4104,17 +4104,17 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C119" t="n">
         <v>118</v>
       </c>
       <c r="D119" t="n">
-        <v>93.13225746154785</v>
+        <v>91.53545106202364</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part6_a</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part6_a</t>
         </is>
       </c>
     </row>
@@ -4135,17 +4135,17 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" t="n">
         <v>119</v>
       </c>
       <c r="D120" t="n">
-        <v>93.13225746154785</v>
+        <v>91.53545106202364</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part6_a</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part6_a</t>
         </is>
       </c>
     </row>
@@ -4166,17 +4166,17 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C121" t="n">
         <v>120</v>
       </c>
       <c r="D121" t="n">
-        <v>93.13225746154785</v>
+        <v>91.53545106202364</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part6_a</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part6_a</t>
         </is>
       </c>
     </row>
@@ -4197,17 +4197,17 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C122" t="n">
         <v>121</v>
       </c>
       <c r="D122" t="n">
-        <v>93.13225746154785</v>
+        <v>91.53545106202364</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part6_a</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part6_a</t>
         </is>
       </c>
     </row>
@@ -4228,17 +4228,17 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C123" t="n">
         <v>122</v>
       </c>
       <c r="D123" t="n">
-        <v>93.13225746154785</v>
+        <v>91.53545106202364</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part6_a</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part6_a</t>
         </is>
       </c>
     </row>
@@ -4259,17 +4259,17 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C124" t="n">
         <v>123</v>
       </c>
       <c r="D124" t="n">
-        <v>93.13225746154785</v>
+        <v>91.53545106202364</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part6_a</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part6_a</t>
         </is>
       </c>
     </row>
@@ -4290,17 +4290,17 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C125" t="n">
         <v>124</v>
       </c>
       <c r="D125" t="n">
-        <v>93.13225746154785</v>
+        <v>91.53545106202364</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4310,7 +4310,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part6_a</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part6_a</t>
         </is>
       </c>
     </row>
@@ -4321,17 +4321,17 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C126" t="n">
         <v>125</v>
       </c>
       <c r="D126" t="n">
-        <v>93.13225746154785</v>
+        <v>91.53545106202364</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part6_a</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part6_a</t>
         </is>
       </c>
     </row>
@@ -4352,17 +4352,17 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C127" t="n">
         <v>126</v>
       </c>
       <c r="D127" t="n">
-        <v>93.13225746154785</v>
+        <v>91.53545106202364</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part6_a</t>
+          <t>/cluster/scratch/loherzog/orsoMT_loherzog/part6_a</t>
         </is>
       </c>
     </row>
@@ -4383,27 +4383,27 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C128" t="n">
         <v>127</v>
       </c>
       <c r="D128" t="n">
-        <v>93.13225746154785</v>
+        <v>91.53545106202364</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/nobss01/orsoMT_nobss01</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>part6_a</t>
+          <t>part6_b</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part6_a</t>
+          <t>/cluster/scratch/nobss01/orsoMT_nobss01/part6_b</t>
         </is>
       </c>
     </row>
@@ -4414,27 +4414,27 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C129" t="n">
         <v>128</v>
       </c>
       <c r="D129" t="n">
-        <v>93.13225746154785</v>
+        <v>91.53545106202364</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/nobss01/orsoMT_nobss01</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>part6_a</t>
+          <t>part6_b</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part6_a</t>
+          <t>/cluster/scratch/nobss01/orsoMT_nobss01/part6_b</t>
         </is>
       </c>
     </row>
@@ -4445,27 +4445,27 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C130" t="n">
         <v>129</v>
       </c>
       <c r="D130" t="n">
-        <v>93.13225746154785</v>
+        <v>91.53545106202364</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT</t>
+          <t>/cluster/scratch/nobss01/orsoMT_nobss01</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>part6_a</t>
+          <t>part6_b</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>/cluster/scratch/nobss01/orsoMT/part6_a</t>
+          <t>/cluster/scratch/nobss01/orsoMT_nobss01/part6_b</t>
         </is>
       </c>
     </row>
@@ -4476,17 +4476,17 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C131" t="n">
         <v>130</v>
       </c>
       <c r="D131" t="n">
-        <v>93.13225746154785</v>
+        <v>91.53545106202364</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>/cluster/scratch/LEON/orsoMT_LEON</t>
+          <t>/cluster/scratch/nobss01/orsoMT_nobss01</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>/cluster/scratch/LEON/orsoMT_LEON/part6_b</t>
+          <t>/cluster/scratch/nobss01/orsoMT_nobss01/part6_b</t>
         </is>
       </c>
     </row>
@@ -4507,17 +4507,17 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C132" t="n">
         <v>131</v>
       </c>
       <c r="D132" t="n">
-        <v>93.13225746154785</v>
+        <v>91.53545106202364</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>/cluster/scratch/LEON/orsoMT_LEON</t>
+          <t>/cluster/scratch/nobss01/orsoMT_nobss01</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>/cluster/scratch/LEON/orsoMT_LEON/part6_b</t>
+          <t>/cluster/scratch/nobss01/orsoMT_nobss01/part6_b</t>
         </is>
       </c>
     </row>
@@ -4538,17 +4538,17 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C133" t="n">
         <v>132</v>
       </c>
       <c r="D133" t="n">
-        <v>93.13225746154785</v>
+        <v>91.53545106202364</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>/cluster/scratch/LEON/orsoMT_LEON</t>
+          <t>/cluster/scratch/nobss01/orsoMT_nobss01</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>/cluster/scratch/LEON/orsoMT_LEON/part6_b</t>
+          <t>/cluster/scratch/nobss01/orsoMT_nobss01/part6_b</t>
         </is>
       </c>
     </row>
@@ -4569,17 +4569,17 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C134" t="n">
         <v>133</v>
       </c>
       <c r="D134" t="n">
-        <v>93.13225746154785</v>
+        <v>91.53545106202364</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>/cluster/scratch/LEON/orsoMT_LEON</t>
+          <t>/cluster/scratch/nobss01/orsoMT_nobss01</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>/cluster/scratch/LEON/orsoMT_LEON/part6_b</t>
+          <t>/cluster/scratch/nobss01/orsoMT_nobss01/part6_b</t>
         </is>
       </c>
     </row>
@@ -4600,17 +4600,17 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C135" t="n">
         <v>134</v>
       </c>
       <c r="D135" t="n">
-        <v>93.13225746154785</v>
+        <v>91.53545106202364</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>/cluster/scratch/LEON/orsoMT_LEON</t>
+          <t>/cluster/scratch/nobss01/orsoMT_nobss01</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4620,7 +4620,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>/cluster/scratch/LEON/orsoMT_LEON/part6_b</t>
+          <t>/cluster/scratch/nobss01/orsoMT_nobss01/part6_b</t>
         </is>
       </c>
     </row>
@@ -4631,17 +4631,17 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C136" t="n">
         <v>135</v>
       </c>
       <c r="D136" t="n">
-        <v>93.13225746154785</v>
+        <v>91.53545106202364</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>/cluster/scratch/LEON/orsoMT_LEON</t>
+          <t>/cluster/scratch/nobss01/orsoMT_nobss01</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4651,7 +4651,38 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>/cluster/scratch/LEON/orsoMT_LEON/part6_b</t>
+          <t>/cluster/scratch/nobss01/orsoMT_nobss01/part6_b</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>part6</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>23</v>
+      </c>
+      <c r="C137" t="n">
+        <v>136</v>
+      </c>
+      <c r="D137" t="n">
+        <v>91.53545106202364</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>/cluster/scratch/nobss01/orsoMT_nobss01</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>part6_b</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>/cluster/scratch/nobss01/orsoMT_nobss01/part6_b</t>
         </is>
       </c>
     </row>
